--- a/papers/data/参数测试/扰动类型概率测试/扰动概率测试.xlsx
+++ b/papers/data/参数测试/扰动类型概率测试/扰动概率测试.xlsx
@@ -20,12 +20,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +60,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +76,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +121,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +156,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +338,334 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A13:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:J22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>0.1</v>
+      </c>
+      <c r="C13">
+        <v>0.2</v>
+      </c>
+      <c r="D13">
+        <v>0.3</v>
+      </c>
+      <c r="E13">
+        <v>0.4</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.6</v>
+      </c>
+      <c r="H13">
+        <v>0.7</v>
+      </c>
+      <c r="I13">
+        <v>0.8</v>
+      </c>
+      <c r="J13">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0.1</v>
+      </c>
+      <c r="B14">
+        <v>36159</v>
+      </c>
+      <c r="C14">
+        <v>36247</v>
+      </c>
+      <c r="D14">
+        <v>37240</v>
+      </c>
+      <c r="E14">
+        <v>36006</v>
+      </c>
+      <c r="F14">
+        <v>36275</v>
+      </c>
+      <c r="G14">
+        <v>36030</v>
+      </c>
+      <c r="H14">
+        <v>36184</v>
+      </c>
+      <c r="I14">
+        <v>36064</v>
+      </c>
+      <c r="J14">
+        <v>36068</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0.2</v>
+      </c>
+      <c r="B15">
+        <v>36970</v>
+      </c>
+      <c r="C15">
+        <v>36011</v>
+      </c>
+      <c r="D15">
+        <v>36051</v>
+      </c>
+      <c r="E15">
+        <v>35987</v>
+      </c>
+      <c r="F15">
+        <v>35933</v>
+      </c>
+      <c r="G15">
+        <v>36267</v>
+      </c>
+      <c r="H15">
+        <v>35997</v>
+      </c>
+      <c r="I15">
+        <v>36101</v>
+      </c>
+      <c r="J15">
+        <v>36248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0.3</v>
+      </c>
+      <c r="B16">
+        <v>35933</v>
+      </c>
+      <c r="C16">
+        <v>36142</v>
+      </c>
+      <c r="D16">
+        <v>36297</v>
+      </c>
+      <c r="E16">
+        <v>36110</v>
+      </c>
+      <c r="F16">
+        <v>36208</v>
+      </c>
+      <c r="G16">
+        <v>36059</v>
+      </c>
+      <c r="H16">
+        <v>36198</v>
+      </c>
+      <c r="I16">
+        <v>36288</v>
+      </c>
+      <c r="J16">
+        <v>36127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0.4</v>
+      </c>
+      <c r="B17">
+        <v>36222</v>
+      </c>
+      <c r="C17">
+        <v>36024</v>
+      </c>
+      <c r="D17">
+        <v>36201</v>
+      </c>
+      <c r="E17">
+        <v>36153</v>
+      </c>
+      <c r="F17">
+        <v>36032</v>
+      </c>
+      <c r="G17">
+        <v>36277</v>
+      </c>
+      <c r="H17">
+        <v>36244</v>
+      </c>
+      <c r="I17">
+        <v>36175</v>
+      </c>
+      <c r="J17">
+        <v>36218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0.5</v>
+      </c>
+      <c r="B18">
+        <v>36973</v>
+      </c>
+      <c r="C18">
+        <v>36205</v>
+      </c>
+      <c r="D18">
+        <v>36141</v>
+      </c>
+      <c r="E18">
+        <v>36200</v>
+      </c>
+      <c r="F18">
+        <v>36209</v>
+      </c>
+      <c r="G18">
+        <v>36117</v>
+      </c>
+      <c r="H18">
+        <v>35906</v>
+      </c>
+      <c r="I18">
+        <v>36239</v>
+      </c>
+      <c r="J18">
+        <v>35979</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0.6</v>
+      </c>
+      <c r="B19">
+        <v>36170</v>
+      </c>
+      <c r="C19">
+        <v>36247</v>
+      </c>
+      <c r="D19">
+        <v>36017</v>
+      </c>
+      <c r="E19">
+        <v>36159</v>
+      </c>
+      <c r="F19">
+        <v>35974</v>
+      </c>
+      <c r="G19">
+        <v>36253</v>
+      </c>
+      <c r="H19">
+        <v>35950</v>
+      </c>
+      <c r="I19">
+        <v>36168</v>
+      </c>
+      <c r="J19">
+        <v>36263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0.7</v>
+      </c>
+      <c r="B20">
+        <v>36943</v>
+      </c>
+      <c r="C20">
+        <v>36965</v>
+      </c>
+      <c r="D20">
+        <v>36229</v>
+      </c>
+      <c r="E20">
+        <v>36047</v>
+      </c>
+      <c r="F20">
+        <v>36235</v>
+      </c>
+      <c r="G20">
+        <v>36284</v>
+      </c>
+      <c r="H20">
+        <v>36222</v>
+      </c>
+      <c r="I20">
+        <v>36141</v>
+      </c>
+      <c r="J20">
+        <v>36096</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0.8</v>
+      </c>
+      <c r="B21">
+        <v>36148</v>
+      </c>
+      <c r="C21">
+        <v>36194</v>
+      </c>
+      <c r="D21">
+        <v>36012</v>
+      </c>
+      <c r="E21">
+        <v>36146</v>
+      </c>
+      <c r="F21">
+        <v>36048</v>
+      </c>
+      <c r="G21">
+        <v>35970</v>
+      </c>
+      <c r="H21">
+        <v>36154</v>
+      </c>
+      <c r="I21">
+        <v>36152</v>
+      </c>
+      <c r="J21">
+        <v>36111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0.9</v>
+      </c>
+      <c r="B22">
+        <v>36196</v>
+      </c>
+      <c r="C22">
+        <v>36235</v>
+      </c>
+      <c r="D22">
+        <v>36276</v>
+      </c>
+      <c r="E22">
+        <v>36056</v>
+      </c>
+      <c r="F22">
+        <v>36112</v>
+      </c>
+      <c r="G22">
+        <v>36207</v>
+      </c>
+      <c r="H22">
+        <v>36299</v>
+      </c>
+      <c r="I22">
+        <v>36254</v>
+      </c>
+      <c r="J22">
+        <v>35935</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>